--- a/data/s1/Aradas/archetypes/stats_trans.xlsx
+++ b/data/s1/Aradas/archetypes/stats_trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Aradas\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s0\Aradas\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFC69A0-D66E-406F-86AF-A5321510C80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2528C-CF7B-4B95-ADF4-40C64F975040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="855" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="D2" s="2">
         <v>0.23749999999999999</v>
@@ -514,7 +514,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="D4" s="2">
         <v>0.33579999999999999</v>
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="D6" s="2">
         <v>0.33579999999999999</v>
@@ -594,7 +594,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="D8" s="2">
         <v>0.33579999999999999</v>
@@ -634,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="D10" s="2">
         <v>0.33579999999999999</v>
@@ -674,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="D12" s="2">
         <v>0.33579999999999999</v>
@@ -714,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="D14" s="2">
         <v>0.33579999999999999</v>
@@ -754,7 +754,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="D16" s="2">
         <v>0.33579999999999999</v>
